--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
@@ -525,16 +525,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>85.548028</v>
+        <v>0.02286966666666667</v>
       </c>
       <c r="H2">
-        <v>256.644084</v>
+        <v>0.068609</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -543,34 +543,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>373.8120643333334</v>
+        <v>0.005328</v>
       </c>
       <c r="N2">
-        <v>1121.436193</v>
+        <v>0.015984</v>
       </c>
       <c r="O2">
-        <v>0.9916504392533645</v>
+        <v>0.001689940172269439</v>
       </c>
       <c r="P2">
-        <v>0.9916504392533645</v>
+        <v>0.001689940172269439</v>
       </c>
       <c r="Q2">
-        <v>31978.8849463258</v>
+        <v>0.000121849584</v>
       </c>
       <c r="R2">
-        <v>287809.9645169323</v>
+        <v>0.001096646256</v>
       </c>
       <c r="S2">
-        <v>0.9916504392533645</v>
+        <v>0.001689940172269439</v>
       </c>
       <c r="T2">
-        <v>0.9916504392533645</v>
+        <v>0.001689940172269439</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,16 +587,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>85.548028</v>
+        <v>0.02286966666666667</v>
       </c>
       <c r="H3">
-        <v>256.644084</v>
+        <v>0.068609</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,22 +617,22 @@
         <v>9.442339</v>
       </c>
       <c r="O3">
-        <v>0.00834956074663552</v>
+        <v>0.9983100598277306</v>
       </c>
       <c r="P3">
-        <v>0.00834956074663552</v>
+        <v>0.9983100598277306</v>
       </c>
       <c r="Q3">
-        <v>269.2578270524974</v>
+        <v>0.07198104849455556</v>
       </c>
       <c r="R3">
-        <v>2423.320443472476</v>
+        <v>0.6478294364510001</v>
       </c>
       <c r="S3">
-        <v>0.00834956074663552</v>
+        <v>0.9983100598277306</v>
       </c>
       <c r="T3">
-        <v>0.00834956074663552</v>
+        <v>0.9983100598277306</v>
       </c>
     </row>
   </sheetData>
